--- a/data/trans_media/Q31A-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q31A-Estudios-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,95; 17,39</t>
+          <t>16,94; 17,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 18,17</t>
+          <t>17,21; 18,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,6; 17,27</t>
+          <t>16,58; 17,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,41; 16,97</t>
+          <t>16,4; 16,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 19,91</t>
+          <t>18,67; 19,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,92; 22,02</t>
+          <t>19,84; 21,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 23,86</t>
+          <t>20,33; 24,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,54; 20,88</t>
+          <t>18,49; 20,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 17,94</t>
+          <t>17,46; 17,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,15; 19,08</t>
+          <t>18,15; 19,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,72; 18,92</t>
+          <t>17,71; 18,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,97; 17,72</t>
+          <t>17,0; 17,72</t>
         </is>
       </c>
     </row>
@@ -864,52 +864,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,07</t>
+          <t>16,83; 17,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,29</t>
+          <t>17,01; 17,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,06</t>
+          <t>16,82; 17,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,92; 17,26</t>
+          <t>16,93; 17,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 18,16</t>
+          <t>17,69; 18,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 18,57</t>
+          <t>17,92; 18,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 18,46</t>
+          <t>17,86; 18,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 18,73</t>
+          <t>17,3; 18,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 17,4</t>
+          <t>17,17; 17,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 17,65</t>
+          <t>17,37; 17,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,71</t>
+          <t>17,16; 17,71</t>
         </is>
       </c>
     </row>
@@ -1004,47 +1004,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,66</t>
+          <t>17,19; 17,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 18,03</t>
+          <t>17,44; 18,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,7</t>
+          <t>17,09; 17,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,32; 18,14</t>
+          <t>17,3; 18,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,65; 18,24</t>
+          <t>17,62; 18,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,86; 18,73</t>
+          <t>17,92; 18,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,89; 18,99</t>
+          <t>17,87; 18,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,83; 18,74</t>
+          <t>17,82; 18,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 17,8</t>
+          <t>17,43; 17,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 18,08</t>
+          <t>17,49; 18,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 18,2</t>
+          <t>17,62; 18,21</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,19</t>
+          <t>17,0; 17,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,51</t>
+          <t>17,21; 17,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 17,15</t>
+          <t>16,9; 17,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,37 +1164,37 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,35</t>
+          <t>17,96; 18,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,48; 19,14</t>
+          <t>18,47; 19,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 18,93</t>
+          <t>18,3; 18,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,67</t>
+          <t>17,63; 18,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,54</t>
+          <t>17,34; 17,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 17,98</t>
+          <t>17,69; 17,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,74</t>
+          <t>17,46; 17,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_media/Q31A-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q31A-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,94; 17,4</t>
+          <t>16,94; 17,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 18,16</t>
+          <t>17,18; 18,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,58; 17,3</t>
+          <t>16,58; 17,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,67; 19,88</t>
+          <t>18,67; 19,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 21,91</t>
+          <t>19,82; 21,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,33; 24,24</t>
+          <t>20,26; 23,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 17,93</t>
+          <t>17,49; 17,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,15; 19,04</t>
+          <t>18,17; 19,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 18,85</t>
+          <t>17,68; 18,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,83; 17,06</t>
+          <t>16,84; 17,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,3</t>
+          <t>17,01; 17,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,09</t>
+          <t>16,83; 17,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,69; 18,18</t>
+          <t>17,68; 18,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 18,56</t>
+          <t>17,92; 18,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 18,46</t>
+          <t>17,84; 18,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 17,39</t>
+          <t>17,16; 17,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 17,66</t>
+          <t>17,36; 17,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,25; 17,53</t>
+          <t>17,23; 17,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,64</t>
+          <t>17,21; 17,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,44; 18,02</t>
+          <t>17,43; 18,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 17,7</t>
+          <t>17,1; 17,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 18,2</t>
+          <t>17,65; 18,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,92; 18,76</t>
+          <t>17,92; 18,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,87; 18,92</t>
+          <t>17,84; 19,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 17,78</t>
+          <t>17,43; 17,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,07</t>
+          <t>17,53; 18,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,18</t>
+          <t>17,0; 17,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,5</t>
+          <t>17,21; 17,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 17,13</t>
+          <t>16,89; 17,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,36</t>
+          <t>17,95; 18,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 19,12</t>
+          <t>18,49; 19,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 18,91</t>
+          <t>18,31; 18,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,53</t>
+          <t>17,34; 17,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 17,96</t>
+          <t>17,69; 17,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 17,75</t>
+          <t>17,44; 17,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
